--- a/medicine/Enfance/Gaëlle_Charlot/Gaëlle_Charlot.xlsx
+++ b/medicine/Enfance/Gaëlle_Charlot/Gaëlle_Charlot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ga%C3%ABlle_Charlot</t>
+          <t>Gaëlle_Charlot</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gaëlle Charlot (née en 1974) est une graphiste, designer, et illustratrice française, notamment en littérature jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ga%C3%ABlle_Charlot</t>
+          <t>Gaëlle_Charlot</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gaëlle Charlot est née en Auvergne. Elle a obtenu une licence en arts plastiques à l'Université Jean Monnet-Saint Étienne. Puis, elle a suivi des études à l'École supérieure d'art et de design d'Orléans, où elle a obtenu un DNSEP.
 Elle exerce en tant que graphiste, designer, webmestre et illustratrice, à la fois dans les domaines de la communication, la presse, le design textile et l'édition.
-Elle a vécu à Orléans, Grenoble, Tokyo, puis à l'ensoleillée Montpellier[1],[2],[3].
+Elle a vécu à Orléans, Grenoble, Tokyo, puis à l'ensoleillée Montpellier.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ga%C3%ABlle_Charlot</t>
+          <t>Gaëlle_Charlot</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a obtenu le Grand Prix de la Société des gens de lettres (SGDL) du livre Jeunesse[4] en 2012, pour Départs d'enfants dont elle est l'illustratrice et écrit par Nicolas Gerrier. Ce livre est édité chez L'Atelier du poisson soluble[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a obtenu le Grand Prix de la Société des gens de lettres (SGDL) du livre Jeunesse en 2012, pour Départs d'enfants dont elle est l'illustratrice et écrit par Nicolas Gerrier. Ce livre est édité chez L'Atelier du poisson soluble.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ga%C3%ABlle_Charlot</t>
+          <t>Gaëlle_Charlot</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Elle a participé à une œuvre éditée[5],[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Elle a participé à une œuvre éditée, :
 Départs d'enfants, Nicolas Gerrier, l'Atelier du poisson soluble, 2011</t>
         </is>
       </c>
